--- a/samples/4_side-effects/exported_file.xlsx
+++ b/samples/4_side-effects/exported_file.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
-    <t>Date: 05-10-2018 - Department: Sales department</t>
+    <t>Date: 06-01-2026 - Department: Sales department</t>
   </si>
   <si>
     <t>Report on managers:</t>
@@ -97,67 +97,67 @@
     <t>Ochoa S.</t>
   </si>
   <si>
+    <t>03-06-2018</t>
+  </si>
+  <si>
+    <t>000726</t>
+  </si>
+  <si>
+    <t>Clark H.</t>
+  </si>
+  <si>
+    <t>70 500 $</t>
+  </si>
+  <si>
+    <t>Patel O.</t>
+  </si>
+  <si>
+    <t>04-06-2018</t>
+  </si>
+  <si>
+    <t>0012553</t>
+  </si>
+  <si>
+    <t>Davis O.</t>
+  </si>
+  <si>
+    <t>362 180 $</t>
+  </si>
+  <si>
+    <t>05-06-2018</t>
+  </si>
+  <si>
+    <t>0008245</t>
+  </si>
+  <si>
+    <t>Evans P.</t>
+  </si>
+  <si>
+    <t>5 900 $</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>fd1</t>
+  </si>
+  <si>
+    <t>Report on sales by dates:</t>
+  </si>
+  <si>
     <t>ccc</t>
   </si>
   <si>
-    <t>03-06-2018</t>
-  </si>
-  <si>
-    <t>000726</t>
-  </si>
-  <si>
-    <t>Clark H.</t>
-  </si>
-  <si>
-    <t>70 500 $</t>
-  </si>
-  <si>
-    <t>Patel O.</t>
-  </si>
-  <si>
-    <t>04-06-2018</t>
-  </si>
-  <si>
-    <t>0012553</t>
-  </si>
-  <si>
-    <t>Davis O.</t>
-  </si>
-  <si>
-    <t>362 180 $</t>
+    <t>ddd</t>
   </si>
   <si>
     <t>eee</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>05-06-2018</t>
-  </si>
-  <si>
-    <t>0008245</t>
-  </si>
-  <si>
-    <t>Evans P.</t>
-  </si>
-  <si>
-    <t>5 900 $</t>
-  </si>
-  <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>fd1</t>
-  </si>
-  <si>
-    <t>Report on sales by dates:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="2">
     <font>
@@ -166,8 +166,10 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -175,22 +177,18 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="14"/>
-      <color rgb="FF3B3B38"/>
+      <color rgb="FF4B462A"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -224,7 +222,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -238,34 +242,21 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -280,7 +271,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,7 +309,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -352,7 +343,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -387,7 +377,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,11 +552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:FX193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="J9" sqref="J9"/>
@@ -583,7 +572,7 @@
     <col min="7" max="7" width="6.5703125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:180">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -591,7 +580,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="4" spans="1:26" customHeight="1" ht="18.75">
+    <row r="4" spans="1:180" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -602,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:180">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -676,7 +665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:180">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -716,41 +705,43 @@
       <c r="N6" s="5">
         <v>800</v>
       </c>
-      <c r="O6">
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6">
+        <v>100</v>
+      </c>
+      <c r="S6">
+        <v>200</v>
+      </c>
+      <c r="T6">
+        <v>300</v>
+      </c>
+      <c r="U6">
+        <v>400</v>
+      </c>
+      <c r="V6">
+        <v>500</v>
+      </c>
+      <c r="W6">
+        <v>600</v>
+      </c>
+      <c r="X6">
+        <v>700</v>
+      </c>
+      <c r="Y6">
+        <v>800</v>
+      </c>
+      <c r="AC6">
         <v>222</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="5">
-        <v>100</v>
-      </c>
-      <c r="S6" s="5">
-        <v>200</v>
-      </c>
-      <c r="T6" s="5">
-        <v>300</v>
-      </c>
-      <c r="U6" s="5">
-        <v>400</v>
-      </c>
-      <c r="V6" s="5">
-        <v>500</v>
-      </c>
-      <c r="W6" s="5">
-        <v>600</v>
-      </c>
-      <c r="X6" s="5">
-        <v>700</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>800</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="5"/>
+      <c r="AN6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:180">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -790,55 +781,49 @@
       <c r="N7" s="5">
         <v>8000</v>
       </c>
-      <c r="O7">
-        <v>333</v>
-      </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7">
         <v>1000</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7">
         <v>2000</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7">
         <v>3000</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7">
         <v>4000</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7">
         <v>5000</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7">
         <v>6000</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7">
         <v>7000</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7">
         <v>8000</v>
       </c>
-      <c r="Z7" t="s">
+    </row>
+    <row r="8" spans="1:180">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="5">
         <v>10000</v>
@@ -864,139 +849,97 @@
       <c r="N8" s="5">
         <v>80000</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8">
+        <v>10000</v>
+      </c>
+      <c r="S8">
+        <v>20000</v>
+      </c>
+      <c r="T8">
+        <v>30000</v>
+      </c>
+      <c r="U8">
+        <v>40000</v>
+      </c>
+      <c r="V8">
+        <v>50000</v>
+      </c>
+      <c r="W8">
+        <v>60000</v>
+      </c>
+      <c r="X8">
+        <v>70000</v>
+      </c>
+      <c r="Y8">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:180">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="5">
-        <v>10000</v>
-      </c>
-      <c r="S8" s="5">
-        <v>20000</v>
-      </c>
-      <c r="T8" s="5">
-        <v>30000</v>
-      </c>
-      <c r="U8" s="5">
-        <v>40000</v>
-      </c>
-      <c r="V8" s="5">
-        <v>50000</v>
-      </c>
-      <c r="W8" s="5">
-        <v>60000</v>
-      </c>
-      <c r="X8" s="5">
-        <v>70000</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:180">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F9">
-        <v>444</v>
-      </c>
-      <c r="G9">
-        <v>555</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="Q9" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R9" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:180">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10">
-        <v>111</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>222</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="F12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="6" t="s">
+    </row>
+    <row r="12" spans="1:180">
+      <c r="G12" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" t="s">
         <v>13</v>
-      </c>
-      <c r="O12">
-        <v>333</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>36</v>
       </c>
       <c r="R12" t="s">
         <v>6</v>
@@ -1022,39 +965,36 @@
       <c r="Y12" t="s">
         <v>13</v>
       </c>
-      <c r="Z12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+    </row>
+    <row r="13" spans="1:180">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>100</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13">
         <v>200</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13">
         <v>300</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>400</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13">
         <v>500</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13">
         <v>600</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13">
         <v>700</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13">
         <v>800</v>
       </c>
       <c r="Q13" t="s">
@@ -1085,44 +1025,35 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:180">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14">
         <v>1000</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
         <v>2000</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14">
         <v>3000</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14">
         <v>4000</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14">
         <v>5000</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14">
         <v>6000</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14">
         <v>7000</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14">
         <v>8000</v>
       </c>
       <c r="Q14" t="s">
@@ -1153,51 +1084,48 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:180">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15">
         <v>10000</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>20000</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <v>30000</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>40000</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>50000</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15">
         <v>60000</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15">
         <v>70000</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15">
         <v>80000</v>
       </c>
-      <c r="O15">
-        <v>111</v>
-      </c>
       <c r="Q15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R15">
         <v>10000</v>
@@ -1223,126 +1151,84 @@
       <c r="Y15">
         <v>80000</v>
       </c>
-      <c r="Z15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+    </row>
+    <row r="16" spans="1:180">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="F16">
-        <v>444</v>
-      </c>
-      <c r="G16">
-        <v>555</v>
-      </c>
-      <c r="H16">
-        <v>222</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+    </row>
+    <row r="17" spans="1:180">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>333</v>
-      </c>
-      <c r="J17" t="s">
+    </row>
+    <row r="18" spans="1:180">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:180">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="K17" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="L17" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="1" t="s">
+      <c r="D19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" t="s">
         <v>13</v>
       </c>
       <c r="R19" t="s">
@@ -1370,38 +1256,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:180">
       <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20">
         <v>100</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20">
         <v>200</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20">
         <v>300</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20">
         <v>400</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20">
         <v>500</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20">
         <v>600</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20">
         <v>700</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20">
         <v>800</v>
       </c>
       <c r="Q20" t="s">
@@ -1432,32 +1315,32 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
-      <c r="F21" s="4" t="s">
+    <row r="21" spans="1:180">
+      <c r="F21" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21">
         <v>1000</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21">
         <v>2000</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21">
         <v>3000</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21">
         <v>4000</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21">
         <v>5000</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21">
         <v>6000</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21">
         <v>7000</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21">
         <v>8000</v>
       </c>
       <c r="Q21" t="s">
@@ -1488,39 +1371,39 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:180">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22">
         <v>10000</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22">
         <v>20000</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22">
         <v>30000</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22">
         <v>40000</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22">
         <v>50000</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22">
         <v>60000</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22">
         <v>70000</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22">
         <v>80000</v>
       </c>
       <c r="Q22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R22">
         <v>10000</v>
@@ -1547,136 +1430,321 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:180">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>444</v>
-      </c>
-      <c r="G23">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+    </row>
+    <row r="24" spans="1:180">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:180">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:180">
       <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+    </row>
+    <row r="27" spans="1:180">
       <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:180">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:180">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+    </row>
+    <row r="31" spans="1:180">
       <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="81" spans="1:26" customHeight="1" ht="18.75"/>
-    <row r="86" spans="1:26" customHeight="1" ht="18.75"/>
+    </row>
+    <row r="34" spans="1:180">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:180">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:180">
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:180">
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:180">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:180">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:180">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="46" spans="1:180">
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:180">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="51" spans="1:180">
+      <c r="C51" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:180">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="55" spans="1:180">
+      <c r="C55" s="7"/>
+    </row>
+    <row r="58" spans="1:180">
+      <c r="D58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:180">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="61" spans="1:180">
+      <c r="F61">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:180">
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:180">
+      <c r="D64" s="1"/>
+      <c r="F64" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:180">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:180">
+      <c r="F66">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:180">
+      <c r="D67" s="7"/>
+      <c r="G67">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="68" spans="1:180">
+      <c r="F68" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:180">
+      <c r="F69" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:180">
+      <c r="F70" s="4"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:180">
+      <c r="F71">
+        <v>444</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:180">
+      <c r="G72">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:180">
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:180">
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:180">
+      <c r="G77">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="79" spans="1:180">
+      <c r="FM79">
+        <v>333</v>
+      </c>
+      <c r="FO79" t="s">
+        <v>44</v>
+      </c>
+      <c r="FP79" t="s">
+        <v>43</v>
+      </c>
+      <c r="FX79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:180" customHeight="1" ht="18.75">
+      <c r="FO81" s="3"/>
+    </row>
+    <row r="82" spans="1:180">
+      <c r="FM82">
+        <v>111</v>
+      </c>
+      <c r="FO82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="FP82" s="6"/>
+      <c r="FX82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:180">
+      <c r="FM83">
+        <v>222</v>
+      </c>
+      <c r="FO83" s="4"/>
+      <c r="FP83" s="5"/>
+      <c r="FX83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:180">
+      <c r="FM84">
+        <v>333</v>
+      </c>
+      <c r="FO84" t="s">
+        <v>44</v>
+      </c>
+      <c r="FP84" t="s">
+        <v>43</v>
+      </c>
+      <c r="FX84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:180" customHeight="1" ht="18.75">
+      <c r="FO86" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:180">
+      <c r="FM87">
+        <v>111</v>
+      </c>
+      <c r="FO87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="FP87" s="6"/>
+      <c r="FX87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:180">
+      <c r="FM88">
+        <v>222</v>
+      </c>
+      <c r="FO88" s="4"/>
+      <c r="FP88" s="5"/>
+      <c r="FX88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:180">
+      <c r="FM89">
+        <v>333</v>
+      </c>
+      <c r="FO89" t="s">
+        <v>44</v>
+      </c>
+      <c r="FP89" t="s">
+        <v>43</v>
+      </c>
+      <c r="FX89" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A91:D91"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1688,23 +1756,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1716,17 +1775,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>